--- a/data/trans_orig/CoPsoQ-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A65DD8F-D363-46F6-A786-E96BF698C4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{143FE49B-B1C6-4A85-B002-6C7FDAFC0191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA622753-3E5A-468F-8C1E-9288FC1E8DAA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE9B46B5-EF85-4AA4-BDA6-D4741A06F6FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="688">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -218,1936 +218,1891 @@
     <t>56,27%</t>
   </si>
   <si>
-    <t>46,26%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
+    <t>47,43%</t>
+  </si>
+  <si>
+    <t>65,23%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>67,52%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>71,14%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>70,05%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>59,8%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>81,29%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>69,03%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>62,28%</t>
+  </si>
+  <si>
+    <t>69,27%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,86%</t>
+  </si>
+  <si>
+    <t>71,9%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
     <t>2,95%</t>
   </si>
   <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,49%</t>
-  </si>
-  <si>
-    <t>80,53%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>57,3%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>65,58%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,4%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>60,06%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>68,76%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>61,07%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>67,86%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
   </si>
   <si>
     <t>15,32%</t>
   </si>
   <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>52,49%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>62,07%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,16%</t>
-  </si>
-  <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>55,72%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>56,14%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
   </si>
   <si>
     <t>5,24%</t>
   </si>
   <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>60,3%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,49%</t>
-  </si>
-  <si>
-    <t>59,74%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,49%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>74,84%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>59,83%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>70,06%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>75,99%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>3,66%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>2,97%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
   </si>
   <si>
     <t>5,74%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
+    <t>11,49%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>2,55%</t>
   </si>
   <si>
     <t>4,31%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
 </sst>
 </file>
@@ -2559,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24DB2A03-5D00-4945-B8A8-64D52C52AB70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00E3CAF-B84D-4F80-BDAF-CA938F566870}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4540,7 +4495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A40603B-19BE-4012-A61B-E4C12BE4728B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660CE91-0797-4316-B31C-F458A47F76B7}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5056,10 +5011,10 @@
         <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5074,13 +5029,13 @@
         <v>106421</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -5089,13 +5044,13 @@
         <v>60084</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>159</v>
@@ -5104,13 +5059,13 @@
         <v>166505</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5125,13 +5080,13 @@
         <v>46009</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5140,13 +5095,13 @@
         <v>34703</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -5155,13 +5110,13 @@
         <v>80712</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5176,13 +5131,13 @@
         <v>61852</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -5191,13 +5146,13 @@
         <v>38322</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -5206,13 +5161,13 @@
         <v>100174</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,7 +5241,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5301,7 +5256,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5331,13 +5286,13 @@
         <v>617359</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>701</v>
@@ -5346,13 +5301,13 @@
         <v>768132</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>1268</v>
@@ -5361,13 +5316,13 @@
         <v>1385491</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,13 +5337,13 @@
         <v>239266</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -5397,13 +5352,13 @@
         <v>143133</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>350</v>
@@ -5412,13 +5367,13 @@
         <v>382398</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,13 +5388,13 @@
         <v>72122</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5448,13 +5403,13 @@
         <v>56424</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -5463,13 +5418,13 @@
         <v>128546</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,13 +5439,13 @@
         <v>89200</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -5499,13 +5454,13 @@
         <v>64496</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -5514,13 +5469,13 @@
         <v>153695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,7 +5564,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5639,13 +5594,13 @@
         <v>440081</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="H23" s="7">
         <v>518</v>
@@ -5654,13 +5609,13 @@
         <v>568170</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M23" s="7">
         <v>920</v>
@@ -5669,13 +5624,13 @@
         <v>1008251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5690,13 +5645,13 @@
         <v>189142</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="H24" s="7">
         <v>117</v>
@@ -5705,13 +5660,13 @@
         <v>130633</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="M24" s="7">
         <v>291</v>
@@ -5720,13 +5675,13 @@
         <v>319775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,13 +5696,13 @@
         <v>66925</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5756,13 +5711,13 @@
         <v>37227</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -5771,13 +5726,13 @@
         <v>104152</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5792,13 +5747,13 @@
         <v>61475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -5807,13 +5762,13 @@
         <v>41144</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -5822,13 +5777,13 @@
         <v>102619</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5947,13 +5902,13 @@
         <v>537934</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>718</v>
@@ -5962,13 +5917,13 @@
         <v>753435</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>1232</v>
@@ -5977,13 +5932,13 @@
         <v>1291369</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,13 +5953,13 @@
         <v>248517</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>154</v>
@@ -6013,13 +5968,13 @@
         <v>161721</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>217</v>
+        <v>84</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>397</v>
@@ -6028,13 +5983,13 @@
         <v>410238</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6004,13 @@
         <v>74334</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -6064,13 +6019,13 @@
         <v>67320</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -6079,13 +6034,13 @@
         <v>141654</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6055,13 @@
         <v>86954</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -6115,13 +6070,13 @@
         <v>69425</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>234</v>
+        <v>155</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M32" s="7">
         <v>147</v>
@@ -6130,13 +6085,13 @@
         <v>156379</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6255,13 +6210,13 @@
         <v>2033943</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="H35" s="7">
         <v>2441</v>
@@ -6270,13 +6225,13 @@
         <v>2629524</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="M35" s="7">
         <v>4342</v>
@@ -6285,13 +6240,13 @@
         <v>4663467</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6261,13 @@
         <v>811007</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H36" s="7">
         <v>465</v>
@@ -6321,13 +6276,13 @@
         <v>503080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>1234</v>
@@ -6336,13 +6291,13 @@
         <v>1314087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6312,13 @@
         <v>268240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -6372,13 +6327,13 @@
         <v>206599</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>201</v>
+        <v>255</v>
       </c>
       <c r="M37" s="7">
         <v>441</v>
@@ -6387,13 +6342,13 @@
         <v>474839</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6363,13 @@
         <v>313590</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>203</v>
+        <v>121</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H38" s="7">
         <v>202</v>
@@ -6423,13 +6378,13 @@
         <v>219105</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>129</v>
+        <v>262</v>
       </c>
       <c r="M38" s="7">
         <v>490</v>
@@ -6438,13 +6393,13 @@
         <v>532696</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6521,7 +6476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607490F4-6FC4-4C32-B820-A3E594F67747}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB0CBF6-D73B-45AF-895D-2BB0FF12D1D8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6538,7 +6493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6651,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6666,7 +6621,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6681,7 +6636,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6651,13 @@
         <v>72525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -6711,13 +6666,13 @@
         <v>83469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -6726,13 +6681,13 @@
         <v>155994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6747,13 +6702,13 @@
         <v>28481</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -6762,13 +6717,13 @@
         <v>15573</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>286</v>
+        <v>119</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -6777,13 +6732,13 @@
         <v>44054</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>144</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6798,13 +6753,13 @@
         <v>3280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6813,13 +6768,13 @@
         <v>4577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6828,13 +6783,13 @@
         <v>7857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6849,13 +6804,13 @@
         <v>12260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>198</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -6864,13 +6819,13 @@
         <v>9741</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -6879,13 +6834,13 @@
         <v>22001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,7 +6914,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6989,7 +6944,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7004,13 +6959,13 @@
         <v>358985</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -7019,13 +6974,13 @@
         <v>422001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M11" s="7">
         <v>760</v>
@@ -7034,13 +6989,13 @@
         <v>780986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7055,13 +7010,13 @@
         <v>106753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -7070,13 +7025,13 @@
         <v>63947</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -7085,13 +7040,13 @@
         <v>170701</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7106,13 +7061,13 @@
         <v>51234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>327</v>
+        <v>185</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -7121,13 +7076,13 @@
         <v>31949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -7136,13 +7091,13 @@
         <v>83183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7157,13 +7112,13 @@
         <v>41282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -7172,13 +7127,13 @@
         <v>41582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -7187,13 +7142,13 @@
         <v>82864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>339</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,7 +7222,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7282,7 +7237,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7312,13 +7267,13 @@
         <v>608390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>710</v>
@@ -7327,13 +7282,13 @@
         <v>769142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>1289</v>
@@ -7342,13 +7297,13 @@
         <v>1377532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7363,13 +7318,13 @@
         <v>223689</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -7378,13 +7333,13 @@
         <v>147557</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>355</v>
+        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="M18" s="7">
         <v>344</v>
@@ -7393,13 +7348,13 @@
         <v>371246</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7414,13 +7369,13 @@
         <v>105819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>360</v>
+        <v>128</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>362</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -7429,13 +7384,13 @@
         <v>61033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -7444,13 +7399,13 @@
         <v>166852</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>367</v>
+        <v>117</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7465,13 +7420,13 @@
         <v>84533</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -7480,13 +7435,13 @@
         <v>65181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>372</v>
+        <v>161</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>236</v>
+        <v>364</v>
       </c>
       <c r="M20" s="7">
         <v>144</v>
@@ -7495,13 +7450,13 @@
         <v>149714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>200</v>
+        <v>365</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>373</v>
+        <v>296</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7590,7 +7545,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7605,7 +7560,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7620,13 +7575,13 @@
         <v>395732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H23" s="7">
         <v>471</v>
@@ -7635,13 +7590,13 @@
         <v>514453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>280</v>
+        <v>373</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M23" s="7">
         <v>840</v>
@@ -7650,13 +7605,13 @@
         <v>910185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7671,13 +7626,13 @@
         <v>222707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="H24" s="7">
         <v>171</v>
@@ -7686,13 +7641,13 @@
         <v>174954</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M24" s="7">
         <v>373</v>
@@ -7701,13 +7656,13 @@
         <v>397661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7722,13 +7677,13 @@
         <v>73807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -7737,13 +7692,13 @@
         <v>54724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>396</v>
+        <v>92</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -7752,13 +7707,13 @@
         <v>128531</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7773,13 +7728,13 @@
         <v>67306</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>127</v>
+        <v>395</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>256</v>
+        <v>70</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -7788,13 +7743,13 @@
         <v>40879</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>395</v>
+        <v>262</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -7803,13 +7758,13 @@
         <v>108185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>329</v>
+        <v>399</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7898,7 +7853,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7928,13 +7883,13 @@
         <v>536396</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>65</v>
       </c>
       <c r="H29" s="7">
         <v>652</v>
@@ -7943,13 +7898,13 @@
         <v>718305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="M29" s="7">
         <v>1191</v>
@@ -7958,13 +7913,13 @@
         <v>1254701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7979,13 +7934,13 @@
         <v>199320</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>414</v>
+        <v>249</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="H30" s="7">
         <v>162</v>
@@ -7994,13 +7949,13 @@
         <v>170488</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="M30" s="7">
         <v>360</v>
@@ -8009,13 +7964,13 @@
         <v>369808</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>419</v>
+        <v>178</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8030,13 +7985,13 @@
         <v>87448</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="H31" s="7">
         <v>68</v>
@@ -8045,13 +8000,13 @@
         <v>72869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -8060,13 +8015,13 @@
         <v>160317</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8081,13 +8036,13 @@
         <v>114402</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>107</v>
+        <v>363</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="H32" s="7">
         <v>77</v>
@@ -8096,13 +8051,13 @@
         <v>82118</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="M32" s="7">
         <v>186</v>
@@ -8111,13 +8066,13 @@
         <v>196519</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>435</v>
+        <v>298</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8236,13 +8191,13 @@
         <v>1972028</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="H35" s="7">
         <v>2325</v>
@@ -8251,13 +8206,13 @@
         <v>2507370</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="M35" s="7">
         <v>4233</v>
@@ -8266,13 +8221,13 @@
         <v>4479398</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>412</v>
+        <v>438</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8287,13 +8242,13 @@
         <v>780951</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H36" s="7">
         <v>559</v>
@@ -8302,13 +8257,13 @@
         <v>572519</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M36" s="7">
         <v>1289</v>
@@ -8317,13 +8272,13 @@
         <v>1353470</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8338,13 +8293,13 @@
         <v>321589</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="H37" s="7">
         <v>219</v>
@@ -8353,13 +8308,13 @@
         <v>225151</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="M37" s="7">
         <v>512</v>
@@ -8368,13 +8323,13 @@
         <v>546740</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8389,13 +8344,13 @@
         <v>319782</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>464</v>
+        <v>120</v>
       </c>
       <c r="H38" s="7">
         <v>235</v>
@@ -8404,13 +8359,13 @@
         <v>239502</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>466</v>
+        <v>328</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="M38" s="7">
         <v>535</v>
@@ -8419,13 +8374,13 @@
         <v>559284</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>469</v>
+        <v>257</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>470</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8502,7 +8457,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA16D8E-26B1-4E53-B4B4-7FB25C88222C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9CD83B-7A3D-46F6-B9A5-83A918D88DFA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8519,7 +8474,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8626,13 +8581,13 @@
         <v>75056</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="H4" s="7">
         <v>198</v>
@@ -8641,13 +8596,13 @@
         <v>106217</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>285</v>
@@ -8656,13 +8611,13 @@
         <v>181273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8677,13 +8632,13 @@
         <v>11541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -8692,13 +8647,13 @@
         <v>16112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -8707,13 +8662,13 @@
         <v>27653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8728,13 +8683,13 @@
         <v>5030</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -8743,13 +8698,13 @@
         <v>4207</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>493</v>
+        <v>269</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>485</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -8758,13 +8713,13 @@
         <v>9238</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8779,13 +8734,13 @@
         <v>1385</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>498</v>
+        <v>330</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8794,13 +8749,13 @@
         <v>1149</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>489</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>375</v>
+        <v>490</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -8809,13 +8764,13 @@
         <v>2534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>26</v>
+        <v>493</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8830,13 +8785,13 @@
         <v>8970</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -8845,13 +8800,13 @@
         <v>3048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>57</v>
+        <v>499</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>505</v>
+        <v>191</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -8860,13 +8815,13 @@
         <v>12017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>506</v>
+        <v>92</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8934,13 +8889,13 @@
         <v>415153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>746</v>
@@ -8949,13 +8904,13 @@
         <v>433046</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="M10" s="7">
         <v>1228</v>
@@ -8964,13 +8919,13 @@
         <v>848200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>508</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8985,13 +8940,13 @@
         <v>60123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>454</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>161</v>
@@ -9000,13 +8955,13 @@
         <v>122311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>519</v>
+        <v>251</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -9015,13 +8970,13 @@
         <v>182434</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>523</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9036,13 +8991,13 @@
         <v>38414</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>399</v>
+        <v>517</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>525</v>
+        <v>124</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>130</v>
+        <v>518</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -9051,13 +9006,13 @@
         <v>30949</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>458</v>
+        <v>521</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -9066,13 +9021,13 @@
         <v>69363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9087,13 +9042,13 @@
         <v>19130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>89</v>
+        <v>525</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -9102,13 +9057,13 @@
         <v>16109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -9117,13 +9072,13 @@
         <v>35238</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9138,13 +9093,13 @@
         <v>17002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>538</v>
+        <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>533</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -9153,13 +9108,13 @@
         <v>17553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -9168,13 +9123,13 @@
         <v>34555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9242,13 +9197,13 @@
         <v>739114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H16" s="7">
         <v>1102</v>
@@ -9257,13 +9212,13 @@
         <v>762341</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="M16" s="7">
         <v>1824</v>
@@ -9272,13 +9227,13 @@
         <v>1501454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9293,13 +9248,13 @@
         <v>88652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>456</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>554</v>
+        <v>255</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -9308,13 +9263,13 @@
         <v>171551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>112</v>
+        <v>550</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -9323,13 +9278,13 @@
         <v>260204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9344,13 +9299,13 @@
         <v>70105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>562</v>
+        <v>519</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>563</v>
+        <v>400</v>
       </c>
       <c r="H18" s="7">
         <v>81</v>
@@ -9359,13 +9314,13 @@
         <v>63327</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -9374,13 +9329,13 @@
         <v>133432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>567</v>
+        <v>164</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>92</v>
+        <v>560</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9395,13 +9350,13 @@
         <v>47411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>571</v>
+        <v>154</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -9410,13 +9365,13 @@
         <v>33865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -9425,13 +9380,13 @@
         <v>81277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>575</v>
+        <v>196</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9446,13 +9401,13 @@
         <v>93966</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>578</v>
+        <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -9461,13 +9416,13 @@
         <v>28994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>581</v>
+        <v>71</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="M20" s="7">
         <v>74</v>
@@ -9476,13 +9431,13 @@
         <v>122960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>501</v>
+        <v>573</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9550,13 +9505,13 @@
         <v>537025</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>577</v>
       </c>
       <c r="H22" s="7">
         <v>764</v>
@@ -9565,13 +9520,13 @@
         <v>662059</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>516</v>
+        <v>578</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>588</v>
+        <v>579</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="M22" s="7">
         <v>1264</v>
@@ -9580,13 +9535,13 @@
         <v>1199083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>590</v>
+        <v>581</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>592</v>
+        <v>583</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9601,13 +9556,13 @@
         <v>110642</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>593</v>
+        <v>584</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>594</v>
+        <v>585</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>595</v>
+        <v>586</v>
       </c>
       <c r="H23" s="7">
         <v>173</v>
@@ -9616,13 +9571,13 @@
         <v>122817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>596</v>
+        <v>587</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>597</v>
+        <v>588</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>598</v>
+        <v>589</v>
       </c>
       <c r="M23" s="7">
         <v>279</v>
@@ -9631,13 +9586,13 @@
         <v>233459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9652,13 +9607,13 @@
         <v>33634</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -9667,13 +9622,13 @@
         <v>42698</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>576</v>
+        <v>597</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="M24" s="7">
         <v>84</v>
@@ -9682,13 +9637,13 @@
         <v>76331</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>607</v>
+        <v>161</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>608</v>
+        <v>496</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9703,13 +9658,13 @@
         <v>18139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -9718,13 +9673,13 @@
         <v>19674</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>615</v>
+        <v>188</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -9733,13 +9688,13 @@
         <v>37812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>617</v>
+        <v>268</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>618</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9754,13 +9709,13 @@
         <v>29332</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>620</v>
+        <v>608</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>621</v>
+        <v>609</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -9769,13 +9724,13 @@
         <v>27125</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>622</v>
+        <v>610</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>623</v>
+        <v>562</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -9784,13 +9739,13 @@
         <v>56457</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>607</v>
+        <v>613</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9858,13 +9813,13 @@
         <v>751235</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="H28" s="7">
         <v>1230</v>
@@ -9873,13 +9828,13 @@
         <v>902007</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
       <c r="M28" s="7">
         <v>2021</v>
@@ -9888,13 +9843,13 @@
         <v>1653242</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9909,13 +9864,13 @@
         <v>101083</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>635</v>
+        <v>192</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
       <c r="H29" s="7">
         <v>205</v>
@@ -9924,13 +9879,13 @@
         <v>154804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>637</v>
+        <v>625</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
       <c r="M29" s="7">
         <v>312</v>
@@ -9939,13 +9894,13 @@
         <v>255887</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>641</v>
+        <v>450</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9960,13 +9915,13 @@
         <v>30272</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -9975,13 +9930,13 @@
         <v>33632</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -9990,13 +9945,13 @@
         <v>63904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10011,13 +9966,13 @@
         <v>37935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>654</v>
+        <v>151</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -10026,13 +9981,13 @@
         <v>19736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -10041,13 +9996,13 @@
         <v>57671</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>659</v>
+        <v>525</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10062,13 +10017,13 @@
         <v>44878</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -10077,13 +10032,13 @@
         <v>40254</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>665</v>
+        <v>632</v>
       </c>
       <c r="M32" s="7">
         <v>96</v>
@@ -10092,13 +10047,13 @@
         <v>85132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>619</v>
+        <v>607</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10166,13 +10121,13 @@
         <v>2517583</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>668</v>
+        <v>507</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>670</v>
+        <v>654</v>
       </c>
       <c r="H34" s="7">
         <v>4040</v>
@@ -10181,13 +10136,13 @@
         <v>2865668</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>671</v>
+        <v>615</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>673</v>
+        <v>98</v>
       </c>
       <c r="M34" s="7">
         <v>6622</v>
@@ -10196,13 +10151,13 @@
         <v>5383251</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>674</v>
+        <v>656</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10217,13 +10172,13 @@
         <v>372041</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>677</v>
+        <v>659</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>678</v>
+        <v>660</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>679</v>
+        <v>661</v>
       </c>
       <c r="H35" s="7">
         <v>821</v>
@@ -10232,13 +10187,13 @@
         <v>587595</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>253</v>
+        <v>662</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>680</v>
+        <v>663</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>681</v>
+        <v>664</v>
       </c>
       <c r="M35" s="7">
         <v>1221</v>
@@ -10247,13 +10202,13 @@
         <v>959636</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>682</v>
+        <v>665</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>683</v>
+        <v>666</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>684</v>
+        <v>667</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10268,13 +10223,13 @@
         <v>177455</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>396</v>
+        <v>668</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>685</v>
+        <v>669</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>686</v>
+        <v>670</v>
       </c>
       <c r="H36" s="7">
         <v>227</v>
@@ -10283,13 +10238,13 @@
         <v>174813</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>652</v>
+        <v>671</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>157</v>
+        <v>672</v>
       </c>
       <c r="M36" s="7">
         <v>382</v>
@@ -10298,13 +10253,13 @@
         <v>352268</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>541</v>
+        <v>673</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>687</v>
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10319,13 +10274,13 @@
         <v>124000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>689</v>
+        <v>636</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>525</v>
+        <v>675</v>
       </c>
       <c r="H37" s="7">
         <v>129</v>
@@ -10334,13 +10289,13 @@
         <v>90533</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>616</v>
+        <v>605</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>582</v>
+        <v>676</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="M37" s="7">
         <v>240</v>
@@ -10349,13 +10304,13 @@
         <v>214532</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10370,13 +10325,13 @@
         <v>194148</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>695</v>
+        <v>486</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="H38" s="7">
         <v>150</v>
@@ -10385,13 +10340,13 @@
         <v>116972</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>699</v>
+        <v>674</v>
       </c>
       <c r="M38" s="7">
         <v>278</v>
@@ -10400,13 +10355,13 @@
         <v>311121</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10448,7 +10403,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>

--- a/data/trans_orig/CoPsoQ-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{143FE49B-B1C6-4A85-B002-6C7FDAFC0191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C67ADB3-AB87-4706-AF92-B3B10CA45199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FE9B46B5-EF85-4AA4-BDA6-D4741A06F6FC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4549359-84AE-4481-9995-074C95EBBFBB}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="692">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No recogida oleada</t>
@@ -116,7 +116,7 @@
     <t>VERDE</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>0,33%</t>
@@ -137,7 +137,7 @@
     <t>99,83%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>0,21%</t>
@@ -152,7 +152,7 @@
     <t>99,89%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>0,3%</t>
@@ -218,1849 +218,1861 @@
     <t>56,27%</t>
   </si>
   <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>65,23%</t>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
+    <t>69,02%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
   </si>
   <si>
     <t>67,16%</t>
   </si>
   <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>73,33%</t>
+    <t>60,07%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>33,2%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>73,04%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,22%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>19,93%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>57,72%</t>
+  </si>
+  <si>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>67,91%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>60,86%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>64,56%</t>
+  </si>
+  <si>
+    <t>68,79%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>48,52%</t>
+  </si>
+  <si>
+    <t>55,59%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>60,38%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>63,13%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>82,86%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>69,33%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
     <t>2,74%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>67,52%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>83,91%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>80,5%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>70,42%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
   </si>
   <si>
     <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>68,22%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>59,8%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>81,29%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>61,93%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>68,58%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>62,83%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>62,28%</t>
-  </si>
-  <si>
-    <t>69,27%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>71,9%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>61,1%</t>
-  </si>
-  <si>
-    <t>65,48%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
   </si>
   <si>
     <t>3,66%</t>
@@ -2514,7 +2526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00E3CAF-B84D-4F80-BDAF-CA938F566870}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EC21DB-5F74-48FA-926F-81C15AC59B81}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4226,7 +4238,7 @@
         <v>3214</v>
       </c>
       <c r="D35" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -4256,7 +4268,7 @@
         <v>6511</v>
       </c>
       <c r="N35" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>17</v>
@@ -4430,7 +4442,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -4460,7 +4472,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -4495,7 +4507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B660CE91-0797-4316-B31C-F458A47F76B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696E2B87-88D7-4377-BF5B-24A864D8DABA}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5050,7 +5062,7 @@
         <v>107</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="M12" s="7">
         <v>159</v>
@@ -5059,13 +5071,13 @@
         <v>166505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5080,13 +5092,13 @@
         <v>46009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5095,13 +5107,13 @@
         <v>34703</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -5110,13 +5122,13 @@
         <v>80712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5131,13 +5143,13 @@
         <v>61852</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -5146,13 +5158,13 @@
         <v>38322</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -5161,13 +5173,13 @@
         <v>100174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,7 +5253,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5256,7 +5268,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5286,13 +5298,13 @@
         <v>617359</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>701</v>
@@ -5301,13 +5313,13 @@
         <v>768132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M17" s="7">
         <v>1268</v>
@@ -5316,13 +5328,13 @@
         <v>1385491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5349,13 @@
         <v>239266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -5352,13 +5364,13 @@
         <v>143133</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M18" s="7">
         <v>350</v>
@@ -5367,13 +5379,13 @@
         <v>382398</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5388,13 +5400,13 @@
         <v>72122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5403,13 +5415,13 @@
         <v>56424</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -5475,7 +5487,7 @@
         <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,7 +5576,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5594,13 +5606,13 @@
         <v>440081</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>518</v>
@@ -5609,13 +5621,13 @@
         <v>568170</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M23" s="7">
         <v>920</v>
@@ -5624,13 +5636,13 @@
         <v>1008251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5657,13 @@
         <v>189142</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H24" s="7">
         <v>117</v>
@@ -5660,13 +5672,13 @@
         <v>130633</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M24" s="7">
         <v>291</v>
@@ -5675,13 +5687,13 @@
         <v>319775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,7 +5708,7 @@
         <v>66925</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>185</v>
@@ -5717,7 +5729,7 @@
         <v>188</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -5726,13 +5738,13 @@
         <v>104152</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5759,13 @@
         <v>61475</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -5971,10 +5983,10 @@
         <v>213</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>84</v>
+        <v>214</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>103</v>
       </c>
       <c r="M30" s="7">
         <v>397</v>
@@ -6025,7 +6037,7 @@
         <v>222</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -6034,13 +6046,13 @@
         <v>141654</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,10 +6067,10 @@
         <v>86954</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>228</v>
@@ -6073,10 +6085,10 @@
         <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>155</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>147</v>
@@ -6085,7 +6097,7 @@
         <v>156379</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>231</v>
+        <v>107</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>232</v>
@@ -6279,10 +6291,10 @@
         <v>246</v>
       </c>
       <c r="K36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M36" s="7">
         <v>1234</v>
@@ -6291,13 +6303,13 @@
         <v>1314087</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6312,13 +6324,13 @@
         <v>268240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -6330,10 +6342,10 @@
         <v>253</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>255</v>
+        <v>185</v>
       </c>
       <c r="M37" s="7">
         <v>441</v>
@@ -6342,13 +6354,13 @@
         <v>474839</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6363,10 +6375,10 @@
         <v>313590</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>259</v>
@@ -6476,7 +6488,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFB0CBF6-D73B-45AF-895D-2BB0FF12D1D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C652D255-A020-4EF0-98C5-725F65FAA82B}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6720,10 +6732,10 @@
         <v>282</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>119</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -6732,13 +6744,13 @@
         <v>44054</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6765,13 @@
         <v>3280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6768,10 +6780,10 @@
         <v>4577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>291</v>
+        <v>55</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>292</v>
@@ -6804,7 +6816,7 @@
         <v>12260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>296</v>
@@ -6825,7 +6837,7 @@
         <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -6834,10 +6846,10 @@
         <v>22001</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>302</v>
@@ -7025,13 +7037,13 @@
         <v>63947</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -7040,13 +7052,13 @@
         <v>170701</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="P12" s="7" t="s">
-        <v>321</v>
-      </c>
       <c r="Q12" s="7" t="s">
-        <v>322</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7073,13 @@
         <v>51234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -7076,13 +7088,13 @@
         <v>31949</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -7091,13 +7103,13 @@
         <v>83183</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7112,13 +7124,13 @@
         <v>41282</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -7127,13 +7139,13 @@
         <v>41582</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -7142,13 +7154,13 @@
         <v>82864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>257</v>
+        <v>335</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,7 +7234,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7237,7 +7249,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7267,13 +7279,13 @@
         <v>608390</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>710</v>
@@ -7282,13 +7294,13 @@
         <v>769142</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>1289</v>
@@ -7297,13 +7309,13 @@
         <v>1377532</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7330,13 @@
         <v>223689</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -7333,10 +7345,10 @@
         <v>147557</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>351</v>
@@ -7369,13 +7381,13 @@
         <v>105819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>355</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>356</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -7384,13 +7396,13 @@
         <v>61033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -7399,13 +7411,13 @@
         <v>166852</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7420,13 +7432,13 @@
         <v>84533</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -7438,10 +7450,10 @@
         <v>160</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>161</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>144</v>
@@ -7450,13 +7462,13 @@
         <v>149714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>365</v>
+        <v>197</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>296</v>
+        <v>367</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7545,7 +7557,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7560,7 +7572,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7587,13 @@
         <v>395732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H23" s="7">
         <v>471</v>
@@ -7590,13 +7602,13 @@
         <v>514453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M23" s="7">
         <v>840</v>
@@ -7605,13 +7617,13 @@
         <v>910185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7638,13 @@
         <v>222707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H24" s="7">
         <v>171</v>
@@ -7641,13 +7653,13 @@
         <v>174954</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M24" s="7">
         <v>373</v>
@@ -7656,13 +7668,13 @@
         <v>397661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7689,13 @@
         <v>73807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -7692,13 +7704,13 @@
         <v>54724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>390</v>
+        <v>128</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -7707,13 +7719,13 @@
         <v>128531</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7728,13 +7740,13 @@
         <v>67306</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -7743,13 +7755,13 @@
         <v>40879</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>397</v>
+        <v>83</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -7758,13 +7770,13 @@
         <v>108185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>262</v>
+        <v>397</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7853,7 +7865,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7883,13 +7895,13 @@
         <v>536396</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H29" s="7">
         <v>652</v>
@@ -7937,10 +7949,10 @@
         <v>409</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>249</v>
+        <v>410</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H30" s="7">
         <v>162</v>
@@ -7949,13 +7961,13 @@
         <v>170488</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M30" s="7">
         <v>360</v>
@@ -7964,13 +7976,13 @@
         <v>369808</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>178</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,13 +7997,13 @@
         <v>87448</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H31" s="7">
         <v>68</v>
@@ -8000,13 +8012,13 @@
         <v>72869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -8015,13 +8027,13 @@
         <v>160317</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>390</v>
+        <v>425</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8036,13 +8048,13 @@
         <v>114402</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>363</v>
+        <v>194</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="H32" s="7">
         <v>77</v>
@@ -8051,13 +8063,13 @@
         <v>82118</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>425</v>
+        <v>366</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>426</v>
+        <v>363</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M32" s="7">
         <v>186</v>
@@ -8066,13 +8078,13 @@
         <v>196519</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>298</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,13 +8203,13 @@
         <v>1972028</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>431</v>
+        <v>338</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H35" s="7">
         <v>2325</v>
@@ -8206,13 +8218,13 @@
         <v>2507370</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M35" s="7">
         <v>4233</v>
@@ -8221,13 +8233,13 @@
         <v>4479398</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8242,7 +8254,7 @@
         <v>780951</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>439</v>
+        <v>184</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>440</v>
@@ -8311,10 +8323,10 @@
         <v>451</v>
       </c>
       <c r="K37" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="M37" s="7">
         <v>512</v>
@@ -8323,13 +8335,13 @@
         <v>546740</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>454</v>
+        <v>325</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,13 +8356,13 @@
         <v>319782</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>120</v>
+        <v>456</v>
       </c>
       <c r="H38" s="7">
         <v>235</v>
@@ -8359,13 +8371,13 @@
         <v>239502</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="M38" s="7">
         <v>535</v>
@@ -8374,13 +8386,13 @@
         <v>559284</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="P38" s="7" t="s">
-        <v>257</v>
-      </c>
       <c r="Q38" s="7" t="s">
-        <v>91</v>
+        <v>462</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8457,7 +8469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9CD83B-7A3D-46F6-B9A5-83A918D88DFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF26721-D3E9-4DAC-B837-C848689599B8}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8474,7 +8486,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8581,13 +8593,13 @@
         <v>75056</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="H4" s="7">
         <v>198</v>
@@ -8596,13 +8608,13 @@
         <v>106217</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M4" s="7">
         <v>285</v>
@@ -8611,13 +8623,13 @@
         <v>181273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,13 +8644,13 @@
         <v>11541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -8647,10 +8659,10 @@
         <v>16112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>476</v>
+        <v>423</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>477</v>
@@ -8740,7 +8752,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8806,7 +8818,7 @@
         <v>499</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>191</v>
+        <v>422</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -8815,13 +8827,13 @@
         <v>12017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>92</v>
+        <v>500</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>501</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8919,13 +8931,13 @@
         <v>848200</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>509</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8940,13 +8952,13 @@
         <v>60123</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>511</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>512</v>
       </c>
       <c r="H11" s="7">
         <v>161</v>
@@ -8955,7 +8967,7 @@
         <v>122311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>251</v>
+        <v>512</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>513</v>
@@ -8973,10 +8985,10 @@
         <v>515</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>247</v>
+        <v>516</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8991,13 +9003,13 @@
         <v>38414</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>517</v>
+        <v>264</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>124</v>
+        <v>518</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -9006,13 +9018,13 @@
         <v>30949</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -9021,13 +9033,13 @@
         <v>69363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9042,13 +9054,13 @@
         <v>19130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -9057,13 +9069,13 @@
         <v>16109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -9072,13 +9084,13 @@
         <v>35238</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9096,10 +9108,10 @@
         <v>494</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -9108,7 +9120,7 @@
         <v>17553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>535</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>536</v>
@@ -9126,7 +9138,7 @@
         <v>538</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>539</v>
@@ -9248,13 +9260,13 @@
         <v>88652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>456</v>
+        <v>549</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>255</v>
+        <v>550</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -9263,13 +9275,13 @@
         <v>171551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -9278,13 +9290,13 @@
         <v>260204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9299,13 +9311,13 @@
         <v>70105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>400</v>
+        <v>559</v>
       </c>
       <c r="H18" s="7">
         <v>81</v>
@@ -9314,13 +9326,13 @@
         <v>63327</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -9329,13 +9341,13 @@
         <v>133432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>164</v>
+        <v>563</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9350,10 +9362,10 @@
         <v>47411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>154</v>
@@ -9365,13 +9377,13 @@
         <v>33865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -9386,7 +9398,7 @@
         <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9404,10 +9416,10 @@
         <v>485</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -9416,13 +9428,13 @@
         <v>28994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>71</v>
+        <v>573</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="M20" s="7">
         <v>74</v>
@@ -9431,13 +9443,13 @@
         <v>122960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9505,13 +9517,13 @@
         <v>537025</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="H22" s="7">
         <v>764</v>
@@ -9520,13 +9532,13 @@
         <v>662059</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>1264</v>
@@ -9535,13 +9547,13 @@
         <v>1199083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9556,13 +9568,13 @@
         <v>110642</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>584</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="H23" s="7">
         <v>173</v>
@@ -9571,13 +9583,13 @@
         <v>122817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="M23" s="7">
         <v>279</v>
@@ -9586,13 +9598,13 @@
         <v>233459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9607,13 +9619,13 @@
         <v>33634</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>595</v>
+        <v>185</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -9622,13 +9634,13 @@
         <v>42698</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="M24" s="7">
         <v>84</v>
@@ -9637,13 +9649,13 @@
         <v>76331</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>161</v>
+        <v>601</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>496</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9658,13 +9670,13 @@
         <v>18139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -9673,13 +9685,13 @@
         <v>19674</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>608</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -9688,13 +9700,13 @@
         <v>37812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>268</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9709,13 +9721,13 @@
         <v>29332</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -9724,13 +9736,13 @@
         <v>27125</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>610</v>
+        <v>89</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -9739,13 +9751,13 @@
         <v>56457</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9813,13 +9825,13 @@
         <v>751235</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="H28" s="7">
         <v>1230</v>
@@ -9828,13 +9840,13 @@
         <v>902007</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="M28" s="7">
         <v>2021</v>
@@ -9843,13 +9855,13 @@
         <v>1653242</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9864,13 +9876,13 @@
         <v>101083</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="H29" s="7">
         <v>205</v>
@@ -9879,13 +9891,13 @@
         <v>154804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="M29" s="7">
         <v>312</v>
@@ -9894,13 +9906,13 @@
         <v>255887</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>450</v>
+        <v>632</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9915,13 +9927,13 @@
         <v>30272</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -9930,13 +9942,13 @@
         <v>33632</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -9945,13 +9957,13 @@
         <v>63904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9966,13 +9978,13 @@
         <v>37935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -9981,13 +9993,13 @@
         <v>19736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -9996,13 +10008,13 @@
         <v>57671</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10017,13 +10029,13 @@
         <v>44878</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -10032,13 +10044,13 @@
         <v>40254</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="M32" s="7">
         <v>96</v>
@@ -10047,13 +10059,13 @@
         <v>85132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10124,10 +10136,10 @@
         <v>507</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="H34" s="7">
         <v>4040</v>
@@ -10136,10 +10148,10 @@
         <v>2865668</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="L34" s="7" t="s">
         <v>98</v>
@@ -10151,13 +10163,13 @@
         <v>5383251</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10172,13 +10184,13 @@
         <v>372041</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="H35" s="7">
         <v>821</v>
@@ -10187,13 +10199,13 @@
         <v>587595</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="M35" s="7">
         <v>1221</v>
@@ -10202,13 +10214,13 @@
         <v>959636</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>665</v>
+        <v>84</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10223,13 +10235,13 @@
         <v>177455</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="H36" s="7">
         <v>227</v>
@@ -10238,13 +10250,13 @@
         <v>174813</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>562</v>
+        <v>80</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="M36" s="7">
         <v>382</v>
@@ -10253,13 +10265,13 @@
         <v>352268</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>118</v>
+        <v>677</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10274,13 +10286,13 @@
         <v>124000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="H37" s="7">
         <v>129</v>
@@ -10289,13 +10301,13 @@
         <v>90533</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="M37" s="7">
         <v>240</v>
@@ -10304,13 +10316,13 @@
         <v>214532</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10325,13 +10337,13 @@
         <v>194148</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>486</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="H38" s="7">
         <v>150</v>
@@ -10340,13 +10352,13 @@
         <v>116972</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="M38" s="7">
         <v>278</v>
@@ -10355,13 +10367,13 @@
         <v>311121</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/CoPsoQ-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C67ADB3-AB87-4706-AF92-B3B10CA45199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{440AD497-2E69-4595-8692-859E16B4A094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F4549359-84AE-4481-9995-074C95EBBFBB}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6F916CC9-E724-4B28-A7B9-8E58294A8497}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1544" uniqueCount="703">
   <si>
     <t>CoPsoQ - Exigencias psicológicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -218,16 +218,16 @@
     <t>56,27%</t>
   </si>
   <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>64,87%</t>
+    <t>46,26%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>69,02%</t>
+    <t>69,51%</t>
   </si>
   <si>
     <t>85,79%</t>
@@ -236,1885 +236,1918 @@
     <t>67,16%</t>
   </si>
   <si>
-    <t>60,07%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>73,16%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>33,2%</t>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
   </si>
   <si>
     <t>6,71%</t>
   </si>
   <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>77,25%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>80,53%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>57,3%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>71,47%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>54,43%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
+  </si>
+  <si>
+    <t>69,4%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>56,76%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>62,34%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>52,49%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>62,07%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>15,85%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>64,73%</t>
+  </si>
+  <si>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>55,72%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>68,58%</t>
+  </si>
+  <si>
+    <t>58,93%</t>
+  </si>
+  <si>
+    <t>56,14%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>60,3%</t>
+  </si>
+  <si>
+    <t>68,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>65,63%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>59,74%</t>
+  </si>
+  <si>
+    <t>70,74%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>64,55%</t>
+  </si>
+  <si>
+    <t>63,49%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,49%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
     <t>2,83%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>71,12%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>71,91%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>74,12%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>4,56%</t>
   </si>
   <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>70,06%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>78,41%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>78,14%</t>
+  </si>
+  <si>
+    <t>76,2%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,63%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>70,5%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>75,99%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>67,57%</t>
-  </si>
-  <si>
-    <t>77,25%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>70,38%</t>
-  </si>
-  <si>
-    <t>73,13%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>54,22%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>56,76%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>57,72%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>65,63%</t>
-  </si>
-  <si>
-    <t>67,91%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
   </si>
   <si>
     <t>6,2%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>80,8%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>60,86%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>69,87%</t>
-  </si>
-  <si>
-    <t>67,03%</t>
-  </si>
-  <si>
-    <t>72,51%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>64,56%</t>
-  </si>
-  <si>
-    <t>68,79%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>55,59%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>61,98%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
-  </si>
-  <si>
-    <t>58,93%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>68,82%</t>
-  </si>
-  <si>
-    <t>65,87%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>65,61%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>CoPsoQ - Exigencias psicológicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>63,13%</t>
-  </si>
-  <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>82,86%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
-  </si>
-  <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>74,44%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>74,12%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
   </si>
   <si>
     <t>7,22%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
-  </si>
-  <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>71,02%</t>
-  </si>
-  <si>
-    <t>83,91%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>80,5%</t>
-  </si>
-  <si>
-    <t>78,41%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>78,14%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>70,42%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>74,55%</t>
-  </si>
-  <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
   </si>
 </sst>
 </file>
@@ -2526,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57EC21DB-5F74-48FA-926F-81C15AC59B81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0359E3E6-E2EF-4122-BCA4-F1C3A71996D2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4238,7 +4271,7 @@
         <v>3214</v>
       </c>
       <c r="D35" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>17</v>
@@ -4268,7 +4301,7 @@
         <v>6511</v>
       </c>
       <c r="N35" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>17</v>
@@ -4442,7 +4475,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>19</v>
@@ -4472,7 +4505,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
@@ -4507,7 +4540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696E2B87-88D7-4377-BF5B-24A864D8DABA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67243E3F-3AED-4852-B88E-D3B9A1268E0F}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5023,10 +5056,10 @@
         <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5074,13 @@
         <v>106421</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H12" s="7">
         <v>57</v>
@@ -5056,13 +5089,13 @@
         <v>60084</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M12" s="7">
         <v>159</v>
@@ -5071,13 +5104,13 @@
         <v>166505</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,13 +5125,13 @@
         <v>46009</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H13" s="7">
         <v>33</v>
@@ -5107,13 +5140,13 @@
         <v>34703</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M13" s="7">
         <v>76</v>
@@ -5122,13 +5155,13 @@
         <v>80712</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,13 +5176,13 @@
         <v>61852</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H14" s="7">
         <v>35</v>
@@ -5158,13 +5191,13 @@
         <v>38322</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" s="7">
         <v>93</v>
@@ -5173,13 +5206,13 @@
         <v>100174</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,7 +5286,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5268,7 +5301,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5298,13 +5331,13 @@
         <v>617359</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H17" s="7">
         <v>701</v>
@@ -5313,13 +5346,13 @@
         <v>768132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M17" s="7">
         <v>1268</v>
@@ -5328,13 +5361,13 @@
         <v>1385491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5382,13 @@
         <v>239266</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H18" s="7">
         <v>130</v>
@@ -5364,13 +5397,13 @@
         <v>143133</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M18" s="7">
         <v>350</v>
@@ -5379,13 +5412,13 @@
         <v>382398</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5400,13 +5433,13 @@
         <v>72122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H19" s="7">
         <v>51</v>
@@ -5415,13 +5448,13 @@
         <v>56424</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="M19" s="7">
         <v>119</v>
@@ -5430,13 +5463,13 @@
         <v>128546</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5451,13 +5484,13 @@
         <v>89200</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H20" s="7">
         <v>58</v>
@@ -5466,13 +5499,13 @@
         <v>64496</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M20" s="7">
         <v>139</v>
@@ -5481,13 +5514,13 @@
         <v>153695</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5576,7 +5609,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -5606,13 +5639,13 @@
         <v>440081</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>518</v>
@@ -5621,13 +5654,13 @@
         <v>568170</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>920</v>
@@ -5636,13 +5669,13 @@
         <v>1008251</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5657,13 +5690,13 @@
         <v>189142</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H24" s="7">
         <v>117</v>
@@ -5672,13 +5705,13 @@
         <v>130633</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>291</v>
@@ -5687,13 +5720,13 @@
         <v>319775</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5708,13 +5741,13 @@
         <v>66925</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="H25" s="7">
         <v>33</v>
@@ -5723,13 +5756,13 @@
         <v>37227</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -5738,13 +5771,13 @@
         <v>104152</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>190</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5759,13 +5792,13 @@
         <v>61475</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7">
         <v>37</v>
@@ -5774,13 +5807,13 @@
         <v>41144</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M26" s="7">
         <v>92</v>
@@ -5789,13 +5822,13 @@
         <v>102619</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5947,13 @@
         <v>537934</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H29" s="7">
         <v>718</v>
@@ -5929,13 +5962,13 @@
         <v>753435</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M29" s="7">
         <v>1232</v>
@@ -5944,13 +5977,13 @@
         <v>1291369</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5965,13 +5998,13 @@
         <v>248517</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H30" s="7">
         <v>154</v>
@@ -5980,13 +6013,13 @@
         <v>161721</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>103</v>
+        <v>218</v>
       </c>
       <c r="M30" s="7">
         <v>397</v>
@@ -5995,13 +6028,13 @@
         <v>410238</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6016,13 +6049,13 @@
         <v>74334</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -6031,13 +6064,13 @@
         <v>67320</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>137</v>
@@ -6046,13 +6079,13 @@
         <v>141654</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6067,13 +6100,13 @@
         <v>86954</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H32" s="7">
         <v>67</v>
@@ -6082,13 +6115,13 @@
         <v>69425</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="M32" s="7">
         <v>147</v>
@@ -6097,13 +6130,13 @@
         <v>156379</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>107</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6255,13 @@
         <v>2033943</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="H35" s="7">
         <v>2441</v>
@@ -6237,13 +6270,13 @@
         <v>2629524</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="M35" s="7">
         <v>4342</v>
@@ -6252,13 +6285,13 @@
         <v>4663467</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6306,13 @@
         <v>811007</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="H36" s="7">
         <v>465</v>
@@ -6288,13 +6321,13 @@
         <v>503080</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>93</v>
+        <v>252</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="M36" s="7">
         <v>1234</v>
@@ -6303,13 +6336,13 @@
         <v>1314087</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>248</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6357,13 @@
         <v>268240</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>252</v>
+        <v>127</v>
       </c>
       <c r="H37" s="7">
         <v>190</v>
@@ -6339,13 +6372,13 @@
         <v>206599</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="M37" s="7">
         <v>441</v>
@@ -6354,13 +6387,13 @@
         <v>474839</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6408,13 @@
         <v>313590</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>258</v>
+        <v>203</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H38" s="7">
         <v>202</v>
@@ -6390,13 +6423,13 @@
         <v>219105</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>262</v>
+        <v>129</v>
       </c>
       <c r="M38" s="7">
         <v>490</v>
@@ -6405,13 +6438,13 @@
         <v>532696</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6488,7 +6521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C652D255-A020-4EF0-98C5-725F65FAA82B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C349B3EB-A4E3-436D-9DD4-5CEEF58398D3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6505,7 +6538,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6618,7 +6651,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6633,7 +6666,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6648,7 +6681,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6663,13 +6696,13 @@
         <v>72525</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="H5" s="7">
         <v>83</v>
@@ -6678,13 +6711,13 @@
         <v>83469</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M5" s="7">
         <v>153</v>
@@ -6693,13 +6726,13 @@
         <v>155994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6714,13 +6747,13 @@
         <v>28481</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -6729,13 +6762,13 @@
         <v>15573</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -6744,13 +6777,13 @@
         <v>44054</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>286</v>
+        <v>144</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6765,13 +6798,13 @@
         <v>3280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -6780,13 +6813,13 @@
         <v>4577</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>55</v>
+        <v>294</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -6795,13 +6828,13 @@
         <v>7857</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6816,13 +6849,13 @@
         <v>12260</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H8" s="7">
         <v>10</v>
@@ -6831,13 +6864,13 @@
         <v>9741</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>104</v>
+        <v>302</v>
       </c>
       <c r="M8" s="7">
         <v>22</v>
@@ -6846,13 +6879,13 @@
         <v>22001</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6926,7 +6959,7 @@
         <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -6956,7 +6989,7 @@
         <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6971,13 +7004,13 @@
         <v>358985</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="H11" s="7">
         <v>409</v>
@@ -6986,13 +7019,13 @@
         <v>422001</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="M11" s="7">
         <v>760</v>
@@ -7001,13 +7034,13 @@
         <v>780986</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7055,13 @@
         <v>106753</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="H12" s="7">
         <v>65</v>
@@ -7037,13 +7070,13 @@
         <v>63947</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>144</v>
+        <v>320</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="M12" s="7">
         <v>167</v>
@@ -7052,13 +7085,13 @@
         <v>170701</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7106,13 @@
         <v>51234</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>229</v>
+        <v>327</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H13" s="7">
         <v>34</v>
@@ -7088,13 +7121,13 @@
         <v>31949</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>325</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>81</v>
@@ -7103,13 +7136,13 @@
         <v>83183</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7124,13 +7157,13 @@
         <v>41282</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -7139,13 +7172,13 @@
         <v>41582</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -7154,13 +7187,13 @@
         <v>82864</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7234,7 +7267,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7249,7 +7282,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -7279,13 +7312,13 @@
         <v>608390</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="H17" s="7">
         <v>710</v>
@@ -7294,13 +7327,13 @@
         <v>769142</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="M17" s="7">
         <v>1289</v>
@@ -7309,13 +7342,13 @@
         <v>1377532</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7363,13 @@
         <v>223689</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -7345,13 +7378,13 @@
         <v>147557</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="M18" s="7">
         <v>344</v>
@@ -7360,13 +7393,13 @@
         <v>371246</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7414,13 @@
         <v>105819</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>360</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="H19" s="7">
         <v>58</v>
@@ -7396,13 +7429,13 @@
         <v>61033</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="M19" s="7">
         <v>151</v>
@@ -7411,13 +7444,13 @@
         <v>166852</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>118</v>
+        <v>367</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7432,13 +7465,13 @@
         <v>84533</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="H20" s="7">
         <v>65</v>
@@ -7447,13 +7480,13 @@
         <v>65181</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>236</v>
       </c>
       <c r="M20" s="7">
         <v>144</v>
@@ -7462,13 +7495,13 @@
         <v>149714</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,7 +7590,7 @@
         <v>12</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>0</v>
@@ -7572,7 +7605,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7587,13 +7620,13 @@
         <v>395732</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="H23" s="7">
         <v>471</v>
@@ -7602,13 +7635,13 @@
         <v>514453</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>375</v>
+        <v>280</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M23" s="7">
         <v>840</v>
@@ -7617,13 +7650,13 @@
         <v>910185</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7638,13 +7671,13 @@
         <v>222707</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H24" s="7">
         <v>171</v>
@@ -7653,13 +7686,13 @@
         <v>174954</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M24" s="7">
         <v>373</v>
@@ -7668,13 +7701,13 @@
         <v>397661</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7722,13 @@
         <v>73807</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>389</v>
+        <v>338</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H25" s="7">
         <v>54</v>
@@ -7704,13 +7737,13 @@
         <v>54724</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>128</v>
+        <v>395</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>83</v>
+        <v>396</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="M25" s="7">
         <v>118</v>
@@ -7719,13 +7752,13 @@
         <v>128531</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7773,13 @@
         <v>67306</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>392</v>
+        <v>127</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>394</v>
+        <v>256</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -7755,13 +7788,13 @@
         <v>40879</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>83</v>
+        <v>402</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>251</v>
+        <v>395</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -7770,13 +7803,13 @@
         <v>108185</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>397</v>
+        <v>86</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>398</v>
+        <v>329</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>399</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,7 +7898,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
@@ -7895,13 +7928,13 @@
         <v>536396</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>652</v>
@@ -7910,13 +7943,13 @@
         <v>718305</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>1191</v>
@@ -7925,13 +7958,13 @@
         <v>1254701</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7946,13 +7979,13 @@
         <v>199320</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="H30" s="7">
         <v>162</v>
@@ -7961,13 +7994,13 @@
         <v>170488</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>413</v>
+        <v>354</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="M30" s="7">
         <v>360</v>
@@ -7976,13 +8009,13 @@
         <v>369808</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +8030,13 @@
         <v>87448</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="H31" s="7">
         <v>68</v>
@@ -8012,13 +8045,13 @@
         <v>72869</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="M31" s="7">
         <v>154</v>
@@ -8027,13 +8060,13 @@
         <v>160317</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>425</v>
+        <v>256</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8048,13 +8081,13 @@
         <v>114402</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>194</v>
+        <v>107</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H32" s="7">
         <v>77</v>
@@ -8063,13 +8096,13 @@
         <v>82118</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>363</v>
+        <v>432</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="M32" s="7">
         <v>186</v>
@@ -8078,13 +8111,13 @@
         <v>196519</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>298</v>
+        <v>435</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8236,13 @@
         <v>1972028</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>338</v>
+        <v>437</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H35" s="7">
         <v>2325</v>
@@ -8218,13 +8251,13 @@
         <v>2507370</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M35" s="7">
         <v>4233</v>
@@ -8233,13 +8266,13 @@
         <v>4479398</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>439</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8254,13 +8287,13 @@
         <v>780951</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>184</v>
+        <v>444</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H36" s="7">
         <v>559</v>
@@ -8269,13 +8302,13 @@
         <v>572519</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M36" s="7">
         <v>1289</v>
@@ -8284,13 +8317,13 @@
         <v>1353470</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8305,13 +8338,13 @@
         <v>321589</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H37" s="7">
         <v>219</v>
@@ -8320,13 +8353,13 @@
         <v>225151</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>199</v>
+        <v>457</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="M37" s="7">
         <v>512</v>
@@ -8335,13 +8368,13 @@
         <v>546740</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>325</v>
+        <v>459</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>399</v>
+        <v>461</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8356,13 +8389,13 @@
         <v>319782</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="H38" s="7">
         <v>235</v>
@@ -8371,13 +8404,13 @@
         <v>239502</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="M38" s="7">
         <v>535</v>
@@ -8386,13 +8419,13 @@
         <v>559284</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>462</v>
+        <v>470</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8469,7 +8502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AF26721-D3E9-4DAC-B837-C848689599B8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FC8C87-AECD-4882-9910-BBA251B2FA77}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8486,7 +8519,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8593,13 +8626,13 @@
         <v>75056</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H4" s="7">
         <v>198</v>
@@ -8608,13 +8641,13 @@
         <v>106217</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="M4" s="7">
         <v>285</v>
@@ -8623,13 +8656,13 @@
         <v>181273</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8644,13 +8677,13 @@
         <v>11541</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>473</v>
+        <v>423</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="H5" s="7">
         <v>32</v>
@@ -8659,13 +8692,13 @@
         <v>16112</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -8674,13 +8707,13 @@
         <v>27653</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8695,13 +8728,13 @@
         <v>5030</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -8710,13 +8743,13 @@
         <v>4207</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>269</v>
+        <v>493</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>485</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -8725,13 +8758,13 @@
         <v>9238</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8746,13 +8779,13 @@
         <v>1385</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>482</v>
+        <v>497</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>329</v>
+        <v>498</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -8761,13 +8794,13 @@
         <v>1149</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>489</v>
+        <v>291</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="M7" s="7">
         <v>5</v>
@@ -8776,13 +8809,13 @@
         <v>2534</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>493</v>
+        <v>26</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8797,13 +8830,13 @@
         <v>8970</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -8812,13 +8845,13 @@
         <v>3048</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>499</v>
+        <v>57</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>505</v>
       </c>
       <c r="M8" s="7">
         <v>12</v>
@@ -8827,13 +8860,13 @@
         <v>12017</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8901,13 +8934,13 @@
         <v>415153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="H10" s="7">
         <v>746</v>
@@ -8916,13 +8949,13 @@
         <v>433046</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="M10" s="7">
         <v>1228</v>
@@ -8931,13 +8964,13 @@
         <v>848200</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8952,13 +8985,13 @@
         <v>60123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>454</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H11" s="7">
         <v>161</v>
@@ -8967,13 +9000,13 @@
         <v>122311</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="M11" s="7">
         <v>228</v>
@@ -8982,13 +9015,13 @@
         <v>182434</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9003,13 +9036,13 @@
         <v>38414</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>264</v>
+        <v>399</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>519</v>
+        <v>130</v>
       </c>
       <c r="H12" s="7">
         <v>41</v>
@@ -9018,13 +9051,13 @@
         <v>30949</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>522</v>
+        <v>458</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -9033,13 +9066,13 @@
         <v>69363</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9054,13 +9087,13 @@
         <v>19130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>526</v>
+        <v>89</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -9069,13 +9102,13 @@
         <v>16109</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="M13" s="7">
         <v>42</v>
@@ -9084,13 +9117,13 @@
         <v>35238</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9105,13 +9138,13 @@
         <v>17002</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>494</v>
+        <v>538</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>534</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -9120,13 +9153,13 @@
         <v>17553</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>71</v>
+        <v>540</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="M14" s="7">
         <v>43</v>
@@ -9135,13 +9168,13 @@
         <v>34555</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>538</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9209,13 +9242,13 @@
         <v>739114</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="H16" s="7">
         <v>1102</v>
@@ -9224,13 +9257,13 @@
         <v>762341</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="M16" s="7">
         <v>1824</v>
@@ -9239,13 +9272,13 @@
         <v>1501454</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9260,13 +9293,13 @@
         <v>88652</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="H17" s="7">
         <v>250</v>
@@ -9275,13 +9308,13 @@
         <v>171551</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>552</v>
+        <v>112</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="M17" s="7">
         <v>352</v>
@@ -9290,13 +9323,13 @@
         <v>260204</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9311,13 +9344,13 @@
         <v>70105</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>520</v>
+        <v>562</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="H18" s="7">
         <v>81</v>
@@ -9326,13 +9359,13 @@
         <v>63327</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="M18" s="7">
         <v>143</v>
@@ -9341,13 +9374,13 @@
         <v>133432</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>564</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9362,13 +9395,13 @@
         <v>47411</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>154</v>
+        <v>571</v>
       </c>
       <c r="H19" s="7">
         <v>46</v>
@@ -9377,13 +9410,13 @@
         <v>33865</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="M19" s="7">
         <v>88</v>
@@ -9392,13 +9425,13 @@
         <v>81277</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>575</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9413,13 +9446,13 @@
         <v>93966</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>485</v>
+        <v>578</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="H20" s="7">
         <v>38</v>
@@ -9428,13 +9461,13 @@
         <v>28994</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="M20" s="7">
         <v>74</v>
@@ -9443,13 +9476,13 @@
         <v>122960</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>577</v>
+        <v>501</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9517,13 +9550,13 @@
         <v>537025</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>581</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>764</v>
@@ -9532,13 +9565,13 @@
         <v>662059</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>582</v>
+        <v>516</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="M22" s="7">
         <v>1264</v>
@@ -9547,13 +9580,13 @@
         <v>1199083</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9568,13 +9601,13 @@
         <v>110642</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>593</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="H23" s="7">
         <v>173</v>
@@ -9583,13 +9616,13 @@
         <v>122817</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="M23" s="7">
         <v>279</v>
@@ -9598,13 +9631,13 @@
         <v>233459</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -9619,13 +9652,13 @@
         <v>33634</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>185</v>
+        <v>604</v>
       </c>
       <c r="H24" s="7">
         <v>54</v>
@@ -9634,13 +9667,13 @@
         <v>42698</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M24" s="7">
         <v>84</v>
@@ -9649,13 +9682,13 @@
         <v>76331</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>496</v>
+        <v>608</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9670,13 +9703,13 @@
         <v>18139</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>605</v>
+        <v>612</v>
       </c>
       <c r="H25" s="7">
         <v>27</v>
@@ -9685,13 +9718,13 @@
         <v>19674</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>606</v>
+        <v>613</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>607</v>
+        <v>614</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>608</v>
+        <v>615</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -9700,13 +9733,13 @@
         <v>37812</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>268</v>
+        <v>617</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>610</v>
+        <v>618</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9721,13 +9754,13 @@
         <v>29332</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>613</v>
+        <v>621</v>
       </c>
       <c r="H26" s="7">
         <v>29</v>
@@ -9736,13 +9769,13 @@
         <v>27125</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>566</v>
+        <v>603</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>89</v>
+        <v>622</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>80</v>
+        <v>623</v>
       </c>
       <c r="M26" s="7">
         <v>53</v>
@@ -9751,13 +9784,13 @@
         <v>56457</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9825,13 +9858,13 @@
         <v>751235</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>619</v>
+        <v>627</v>
       </c>
       <c r="H28" s="7">
         <v>1230</v>
@@ -9840,13 +9873,13 @@
         <v>902007</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>621</v>
+        <v>629</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>622</v>
+        <v>630</v>
       </c>
       <c r="M28" s="7">
         <v>2021</v>
@@ -9855,13 +9888,13 @@
         <v>1653242</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9876,13 +9909,13 @@
         <v>101083</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>191</v>
+        <v>635</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>627</v>
+        <v>636</v>
       </c>
       <c r="H29" s="7">
         <v>205</v>
@@ -9891,13 +9924,13 @@
         <v>154804</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="M29" s="7">
         <v>312</v>
@@ -9906,13 +9939,13 @@
         <v>255887</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>632</v>
+        <v>641</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>633</v>
+        <v>642</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9927,13 +9960,13 @@
         <v>30272</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>635</v>
+        <v>644</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="H30" s="7">
         <v>46</v>
@@ -9942,13 +9975,13 @@
         <v>33632</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="M30" s="7">
         <v>77</v>
@@ -9957,13 +9990,13 @@
         <v>63904</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9978,13 +10011,13 @@
         <v>37935</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>152</v>
+        <v>654</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -9993,13 +10026,13 @@
         <v>19736</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>647</v>
+        <v>657</v>
       </c>
       <c r="M31" s="7">
         <v>62</v>
@@ -10008,13 +10041,13 @@
         <v>57671</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>648</v>
+        <v>658</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>526</v>
+        <v>659</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>649</v>
+        <v>660</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10029,13 +10062,13 @@
         <v>44878</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
       <c r="H32" s="7">
         <v>53</v>
@@ -10044,13 +10077,13 @@
         <v>40254</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>636</v>
+        <v>665</v>
       </c>
       <c r="M32" s="7">
         <v>96</v>
@@ -10059,13 +10092,13 @@
         <v>85132</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10133,13 +10166,13 @@
         <v>2517583</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>507</v>
+        <v>668</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>657</v>
+        <v>669</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="H34" s="7">
         <v>4040</v>
@@ -10148,13 +10181,13 @@
         <v>2865668</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>618</v>
+        <v>671</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>659</v>
+        <v>672</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>98</v>
+        <v>673</v>
       </c>
       <c r="M34" s="7">
         <v>6622</v>
@@ -10163,13 +10196,13 @@
         <v>5383251</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>660</v>
+        <v>674</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10184,13 +10217,13 @@
         <v>372041</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>664</v>
+        <v>678</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>665</v>
+        <v>679</v>
       </c>
       <c r="H35" s="7">
         <v>821</v>
@@ -10199,13 +10232,13 @@
         <v>587595</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>666</v>
+        <v>253</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>667</v>
+        <v>680</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>668</v>
+        <v>681</v>
       </c>
       <c r="M35" s="7">
         <v>1221</v>
@@ -10214,13 +10247,13 @@
         <v>959636</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>84</v>
+        <v>682</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>669</v>
+        <v>683</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>670</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10235,13 +10268,13 @@
         <v>177455</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>671</v>
+        <v>396</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>672</v>
+        <v>685</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>673</v>
+        <v>686</v>
       </c>
       <c r="H36" s="7">
         <v>227</v>
@@ -10250,13 +10283,13 @@
         <v>174813</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>80</v>
+        <v>569</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>674</v>
+        <v>652</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>675</v>
+        <v>157</v>
       </c>
       <c r="M36" s="7">
         <v>382</v>
@@ -10265,13 +10298,13 @@
         <v>352268</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>676</v>
+        <v>541</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10286,13 +10319,13 @@
         <v>124000</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>679</v>
+        <v>525</v>
       </c>
       <c r="H37" s="7">
         <v>129</v>
@@ -10301,13 +10334,13 @@
         <v>90533</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>609</v>
+        <v>616</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>680</v>
+        <v>582</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="M37" s="7">
         <v>240</v>
@@ -10316,13 +10349,13 @@
         <v>214532</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10337,13 +10370,13 @@
         <v>194148</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>486</v>
+        <v>695</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="H38" s="7">
         <v>150</v>
@@ -10352,13 +10385,13 @@
         <v>116972</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>678</v>
+        <v>699</v>
       </c>
       <c r="M38" s="7">
         <v>278</v>
@@ -10367,13 +10400,13 @@
         <v>311121</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>691</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10415,7 +10448,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>19</v>
